--- a/data/SJV Portfolio - Max Bioenergy Buildout 2.1.2024.xlsx
+++ b/data/SJV Portfolio - Max Bioenergy Buildout 2.1.2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D475F5-3F0D-7944-9D6B-F15C02F28AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C42C80E-5597-3A4E-B508-2B9B1B3E85ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="920" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_input" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
     <t>Max Bioenergy</t>
   </si>
   <si>
-    <t>This portfolio uses all available biomass, split out across the different pathways.</t>
+    <t>This portfolio uses all available biomass, split out across the different pathways. The rest of the portfolio is aligned with the "proportional" effort</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -624,6 +624,13 @@
     <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -633,14 +640,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -985,7 +984,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,35 +1004,35 @@
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -1265,7 +1264,7 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="26">
         <v>215769.23076923078</v>
       </c>
       <c r="D18" s="16">
@@ -1285,7 +1284,7 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="26">
         <v>35538.461538461546</v>
       </c>
       <c r="D19" s="16">
@@ -1305,7 +1304,7 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="26">
         <v>102310.03039513678</v>
       </c>
       <c r="D20" s="16"/>
@@ -1317,7 +1316,7 @@
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>6620.0607902735564</v>
       </c>
       <c r="D21" s="16"/>
@@ -1513,7 +1512,7 @@
       </c>
       <c r="B3" t="str">
         <f>portfolio_input!D3</f>
-        <v>This portfolio uses all available biomass, split out across the different pathways.</v>
+        <v>This portfolio uses all available biomass, split out across the different pathways. The rest of the portfolio is aligned with the "proportional" effort</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1530,7 +1529,7 @@
       </c>
       <c r="B5" t="str">
         <f>portfolio_input!D3</f>
-        <v>This portfolio uses all available biomass, split out across the different pathways.</v>
+        <v>This portfolio uses all available biomass, split out across the different pathways. The rest of the portfolio is aligned with the "proportional" effort</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2488,7 @@
         <v>69</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" ref="G3:G20" si="4">AA10/21</f>
+        <f t="shared" ref="G10:G20" si="4">AA10/21</f>
         <v>14761.904761904761</v>
       </c>
       <c r="H10">
@@ -4559,23 +4558,23 @@
       <c r="B21" s="19">
         <v>0.25</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="27">
         <f>C20*C2</f>
         <v>215769.23076923078</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="27">
         <f>D20*D2</f>
         <v>35538.461538461546</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="27">
         <f>E2*E20</f>
         <v>102310.03039513678</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="27">
         <f>F2*F20</f>
         <v>6620.0607902735564</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="30">
         <f>SUM(C21:F21)</f>
         <v>360237.78349310264</v>
       </c>
@@ -4587,23 +4586,23 @@
       <c r="B22" s="19">
         <v>0.25</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="28">
         <f>C20*C10</f>
         <v>0.28050000000000003</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="28">
         <f t="shared" ref="D22:F22" si="4">D20*D10</f>
         <v>4.6200000000000005E-2</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="28">
         <f t="shared" si="4"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="28">
         <f t="shared" si="4"/>
         <v>6.6000000000000008E-3</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="30">
         <f t="shared" ref="H22:H24" si="5">SUM(C22:F22)</f>
         <v>0.53130000000000011</v>
       </c>
@@ -4615,21 +4614,19 @@
       <c r="B23" s="19">
         <v>0.25</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23">
         <f>C20*C7</f>
         <v>158.4</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23">
         <f>D20*D7</f>
         <v>26.400000000000002</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
       <c r="G23">
         <f>G20*G7</f>
         <v>13</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="30">
         <f t="shared" si="5"/>
         <v>184.8</v>
       </c>
@@ -4643,15 +4640,15 @@
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="33">
+      <c r="E24" s="29">
         <f>E5*E20</f>
         <v>9.9</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="29">
         <f>F5*F20</f>
         <v>0.39600000000000002</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="30">
         <f t="shared" si="5"/>
         <v>10.296000000000001</v>
       </c>

--- a/data/SJV Portfolio - Max Bioenergy Buildout 2.1.2024.xlsx
+++ b/data/SJV Portfolio - Max Bioenergy Buildout 2.1.2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C42C80E-5597-3A4E-B508-2B9B1B3E85ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3E51A4-A784-434B-A0DF-E704E7348F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_input" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="103">
   <si>
     <t>Solar</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>This portfolio uses all available biomass, split out across the different pathways. The rest of the portfolio is aligned with the "proportional" effort</t>
+  </si>
+  <si>
+    <t>Animal Fat</t>
   </si>
 </sst>
 </file>
@@ -983,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA35989-F8F5-C645-8F8C-CB2D79A95BD0}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+    <sheetView zoomScale="133" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1541,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225537EC-F8DB-7B4E-B90C-2D6AA935C6A7}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA2:AA9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3512,8 +3515,8 @@
       <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
-        <v>52</v>
+      <c r="B20" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
